--- a/xueqiu_stock/stock_index_data/SZ399001.xlsx
+++ b/xueqiu_stock/stock_index_data/SZ399001.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,6 +694,83 @@
         <v>316000</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tue Oct 31 00:50:03 2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SZ399001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>深圳成指</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>未开盘</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9927.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+157.15  +1.61%</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>9952.43</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9759.219999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>491000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9759.17</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9770.84</v>
+      </c>
+      <c r="M4" t="n">
+        <v>598518000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12246.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2076</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R4" t="n">
+        <v>89</v>
+      </c>
+      <c r="S4" t="n">
+        <v>9373.76</v>
+      </c>
+      <c r="T4" t="n">
+        <v>700</v>
+      </c>
+      <c r="U4" t="n">
+        <v>316000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
